--- a/natmiOut/OldD0/LR-pairs_lrc2p/Nampt-Insr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Nampt-Insr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.8821522730968</v>
+        <v>25.71511833333333</v>
       </c>
       <c r="H2">
-        <v>17.8821522730968</v>
+        <v>77.145355</v>
       </c>
       <c r="I2">
-        <v>0.4845872809253997</v>
+        <v>0.5736986116453374</v>
       </c>
       <c r="J2">
-        <v>0.4845872809253997</v>
+        <v>0.5736986116453374</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.8108739930338</v>
+        <v>17.33599166666667</v>
       </c>
       <c r="N2">
-        <v>16.8108739930338</v>
+        <v>52.007975</v>
       </c>
       <c r="O2">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="P2">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="Q2">
-        <v>300.6146085872732</v>
+        <v>445.7970771340139</v>
       </c>
       <c r="R2">
-        <v>300.6146085872732</v>
+        <v>4012.173694206125</v>
       </c>
       <c r="S2">
-        <v>0.2181448890813013</v>
+        <v>0.2623846105863659</v>
       </c>
       <c r="T2">
-        <v>0.2181448890813013</v>
+        <v>0.2623846105863659</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.8821522730968</v>
+        <v>25.71511833333333</v>
       </c>
       <c r="H3">
-        <v>17.8821522730968</v>
+        <v>77.145355</v>
       </c>
       <c r="I3">
-        <v>0.4845872809253997</v>
+        <v>0.5736986116453374</v>
       </c>
       <c r="J3">
-        <v>0.4845872809253997</v>
+        <v>0.5736986116453374</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.067899781666011</v>
+        <v>9.077707333333334</v>
       </c>
       <c r="N3">
-        <v>9.067899781666011</v>
+        <v>27.233122</v>
       </c>
       <c r="O3">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="P3">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="Q3">
-        <v>162.1535646929328</v>
+        <v>233.4343182720345</v>
       </c>
       <c r="R3">
-        <v>162.1535646929328</v>
+        <v>2100.90886444831</v>
       </c>
       <c r="S3">
-        <v>0.117668837021299</v>
+        <v>0.1373933922830295</v>
       </c>
       <c r="T3">
-        <v>0.117668837021299</v>
+        <v>0.1373933922830295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.8821522730968</v>
+        <v>25.71511833333333</v>
       </c>
       <c r="H4">
-        <v>17.8821522730968</v>
+        <v>77.145355</v>
       </c>
       <c r="I4">
-        <v>0.4845872809253997</v>
+        <v>0.5736986116453374</v>
       </c>
       <c r="J4">
-        <v>0.4845872809253997</v>
+        <v>0.5736986116453374</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.4649190001865</v>
+        <v>11.491094</v>
       </c>
       <c r="N4">
-        <v>11.4649190001865</v>
+        <v>34.473282</v>
       </c>
       <c r="O4">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="P4">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="Q4">
-        <v>205.0174273600557</v>
+        <v>295.4948419894566</v>
       </c>
       <c r="R4">
-        <v>205.0174273600557</v>
+        <v>2659.45357790511</v>
       </c>
       <c r="S4">
-        <v>0.1487735548227995</v>
+        <v>0.173920608775942</v>
       </c>
       <c r="T4">
-        <v>0.1487735548227995</v>
+        <v>0.173920608775942</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.84640736378606</v>
+        <v>9.915995333333335</v>
       </c>
       <c r="H5">
-        <v>9.84640736378606</v>
+        <v>29.747986</v>
       </c>
       <c r="I5">
-        <v>0.2668271524831731</v>
+        <v>0.2212236662524262</v>
       </c>
       <c r="J5">
-        <v>0.2668271524831731</v>
+        <v>0.2212236662524262</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.8108739930338</v>
+        <v>17.33599166666667</v>
       </c>
       <c r="N5">
-        <v>16.8108739930338</v>
+        <v>52.007975</v>
       </c>
       <c r="O5">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="P5">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="Q5">
-        <v>165.5267134766875</v>
+        <v>171.9036124653723</v>
       </c>
       <c r="R5">
-        <v>165.5267134766875</v>
+        <v>1547.13251218835</v>
       </c>
       <c r="S5">
-        <v>0.1201166061791085</v>
+        <v>0.1011780128866951</v>
       </c>
       <c r="T5">
-        <v>0.1201166061791085</v>
+        <v>0.1011780128866951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.84640736378606</v>
+        <v>9.915995333333335</v>
       </c>
       <c r="H6">
-        <v>9.84640736378606</v>
+        <v>29.747986</v>
       </c>
       <c r="I6">
-        <v>0.2668271524831731</v>
+        <v>0.2212236662524262</v>
       </c>
       <c r="J6">
-        <v>0.2668271524831731</v>
+        <v>0.2212236662524262</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.067899781666011</v>
+        <v>9.077707333333334</v>
       </c>
       <c r="N6">
-        <v>9.067899781666011</v>
+        <v>27.233122</v>
       </c>
       <c r="O6">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="P6">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="Q6">
-        <v>89.28623518427021</v>
+        <v>90.01450355469913</v>
       </c>
       <c r="R6">
-        <v>89.28623518427021</v>
+        <v>810.1305319922922</v>
       </c>
       <c r="S6">
-        <v>0.06479171442230501</v>
+        <v>0.05298020483706468</v>
       </c>
       <c r="T6">
-        <v>0.06479171442230501</v>
+        <v>0.05298020483706468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.84640736378606</v>
+        <v>9.915995333333335</v>
       </c>
       <c r="H7">
-        <v>9.84640736378606</v>
+        <v>29.747986</v>
       </c>
       <c r="I7">
-        <v>0.2668271524831731</v>
+        <v>0.2212236662524262</v>
       </c>
       <c r="J7">
-        <v>0.2668271524831731</v>
+        <v>0.2212236662524262</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.4649190001865</v>
+        <v>11.491094</v>
       </c>
       <c r="N7">
-        <v>11.4649190001865</v>
+        <v>34.473282</v>
       </c>
       <c r="O7">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="P7">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="Q7">
-        <v>112.8882628686471</v>
+        <v>113.9456344788947</v>
       </c>
       <c r="R7">
-        <v>112.8882628686471</v>
+        <v>1025.510710310052</v>
       </c>
       <c r="S7">
-        <v>0.08191883188175958</v>
+        <v>0.06706544852866646</v>
       </c>
       <c r="T7">
-        <v>0.08191883188175958</v>
+        <v>0.06706544852866647</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.17325965756471</v>
+        <v>9.192279333333332</v>
       </c>
       <c r="H8">
-        <v>9.17325965756471</v>
+        <v>27.576838</v>
       </c>
       <c r="I8">
-        <v>0.2485855665914272</v>
+        <v>0.2050777221022365</v>
       </c>
       <c r="J8">
-        <v>0.2485855665914272</v>
+        <v>0.2050777221022365</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.8108739930338</v>
+        <v>17.33599166666667</v>
       </c>
       <c r="N8">
-        <v>16.8108739930338</v>
+        <v>52.007975</v>
       </c>
       <c r="O8">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="P8">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="Q8">
-        <v>154.2105122087007</v>
+        <v>159.3572779203389</v>
       </c>
       <c r="R8">
-        <v>154.2105122087007</v>
+        <v>1434.21550128305</v>
       </c>
       <c r="S8">
-        <v>0.1119048579808834</v>
+        <v>0.09379356540433699</v>
       </c>
       <c r="T8">
-        <v>0.1119048579808834</v>
+        <v>0.09379356540433699</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.17325965756471</v>
+        <v>9.192279333333332</v>
       </c>
       <c r="H9">
-        <v>9.17325965756471</v>
+        <v>27.576838</v>
       </c>
       <c r="I9">
-        <v>0.2485855665914272</v>
+        <v>0.2050777221022365</v>
       </c>
       <c r="J9">
-        <v>0.2485855665914272</v>
+        <v>0.2050777221022365</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.067899781666011</v>
+        <v>9.077707333333334</v>
       </c>
       <c r="N9">
-        <v>9.067899781666011</v>
+        <v>27.233122</v>
       </c>
       <c r="O9">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="P9">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="Q9">
-        <v>83.18219924599666</v>
+        <v>83.44482151424845</v>
       </c>
       <c r="R9">
-        <v>83.18219924599666</v>
+        <v>751.0033936282359</v>
       </c>
       <c r="S9">
-        <v>0.06036224158676785</v>
+        <v>0.04911346018512139</v>
       </c>
       <c r="T9">
-        <v>0.06036224158676785</v>
+        <v>0.0491134601851214</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.17325965756471</v>
+        <v>9.192279333333332</v>
       </c>
       <c r="H10">
-        <v>9.17325965756471</v>
+        <v>27.576838</v>
       </c>
       <c r="I10">
-        <v>0.2485855665914272</v>
+        <v>0.2050777221022365</v>
       </c>
       <c r="J10">
-        <v>0.2485855665914272</v>
+        <v>0.2050777221022365</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.4649190001865</v>
+        <v>11.491094</v>
       </c>
       <c r="N10">
-        <v>11.4649190001865</v>
+        <v>34.473282</v>
       </c>
       <c r="O10">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="P10">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="Q10">
-        <v>105.170678941658</v>
+        <v>105.6293458935906</v>
       </c>
       <c r="R10">
-        <v>105.170678941658</v>
+        <v>950.6641130423158</v>
       </c>
       <c r="S10">
-        <v>0.07631846702377594</v>
+        <v>0.06217069651277813</v>
       </c>
       <c r="T10">
-        <v>0.07631846702377594</v>
+        <v>0.06217069651277814</v>
       </c>
     </row>
   </sheetData>
